--- a/MyROCDataOutput.xlsx
+++ b/MyROCDataOutput.xlsx
@@ -11,13 +11,13 @@
     <sheet name="RRRC" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="FRRC" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="RRFC" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="VarComp" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ANOVA" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Significance testing</t>
   </si>
   <si>
-    <t xml:space="preserve">ORH</t>
+    <t xml:space="preserve">DBMH</t>
   </si>
   <si>
     <t xml:space="preserve">Variability estimation method</t>
@@ -172,9 +172,6 @@
     <t xml:space="preserve">95% CI's FOMs, each treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">Inf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reader</t>
   </si>
   <si>
@@ -184,31 +181,64 @@
     <t xml:space="preserve">Var(R)</t>
   </si>
   <si>
+    <t xml:space="preserve">Var(C)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Var(T*R)</t>
   </si>
   <si>
-    <t xml:space="preserve">COV1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COV3</t>
+    <t xml:space="preserve">Var(T*C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Var(R*C)</t>
   </si>
   <si>
     <t xml:space="preserve">Var(Error)</t>
   </si>
   <si>
-    <t xml:space="preserve">OR FOM Variance Covariance Components</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cov1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR Variance Covariance Components for each reader, assuming fixed reader analysis</t>
+    <t xml:space="preserve">FOM variance components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREATMENT X READER X CASE ANOVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">READER X CASE ANOVA for each Trt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREATMENT X CASE ANOVAs (MS) for each reader, assuming fixed reader analysis</t>
   </si>
 </sst>
 </file>
@@ -731,87 +761,104 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="11.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="11.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="11.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="11.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="11.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="20.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.919645732689211</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.85877616747182</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.903864734299517</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="1" t="n">
         <v>0.973107890499195</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="1" t="n">
         <v>0.829790660225443</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="1" t="n">
         <v>0.897037037037037</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="1" t="n">
         <v>-0.0438003220611917</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.947826086956522</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.905314009661836</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.921739130434783</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="1" t="n">
         <v>0.999355877616747</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="1" t="n">
         <v>0.929951690821256</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="1" t="n">
         <v>0.940837359098229</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="1" t="n">
         <v>-0.0438003220611917</v>
       </c>
     </row>
@@ -832,150 +879,210 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="11.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="11.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="11.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="11.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="11.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="11.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>4.45631869315726</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>4.45631869315727</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>15.2596745891417</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0516656858192941</v>
-      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.0516656858192939</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>-0.0438003220611917</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.020748618378945</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="1" t="n">
         <v>15.2596745891417</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="1" t="n">
         <v>-2.11099945361368</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.0516656858192941</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.0879594985665547</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.00035885444417133</v>
-      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.0516656858192939</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>-0.0879594985665546</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0.000358854444171296</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.897037037037037</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.0331735969591671</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="1" t="n">
         <v>12.7446475981183</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="1" t="n">
         <v>0.825223597542365</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="1" t="n">
         <v>0.968850476531709</v>
       </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>0.940837359098229</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="1" t="n">
         <v>0.0215663683702922</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="1" t="n">
         <v>12.7101896416325</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="1" t="n">
         <v>0.894137831211282</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="1" t="n">
         <v>0.987536886985175</v>
       </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -994,328 +1101,419 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="11.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="11.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="11.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="11.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="11.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="11.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="11.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>5.47595324247717</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="n">
+        <v>5.47595324247718</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.0210349686045215</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>-0.0438003220611917</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.0187174826085804</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>-2.3400754779445</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.0210349686045215</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>-0.0808830309829967</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>-0.00671761313938665</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0.897037037037037</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.02428970969038</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.848914741262572</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0.945159332811502</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.940837359098229</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.0167763236605435</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.907600436158776</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0.974074282037681</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0192798430707544</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I14" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="n">
-        <v>-0.0438003220611917</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0187174826085804</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-2.3400754779445</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0192798430707543</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.0804859138552641</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.00711473026711923</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.897037037037037</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02428970969038</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.849430080848959</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.944643993225115</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="C15" s="1" t="n">
+        <v>-0.0281803542673108</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0.0255121325849113</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>-1.10458638349887</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0.271685324301072</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>-0.0787244902713199</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0.0223637817366983</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.940837359098229</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0167763236605435</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.907956368930576</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.973718349265881</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="n">
-        <v>-0.0281803542673108</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0255121325849114</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-1.10458638349886</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.269338853897797</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-0.0781832153025478</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.0218225067679262</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="n">
+        <v>-0.0465378421900161</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0.0263018270478787</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>-1.76937678531992</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0.0795286601389663</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>-0.0986465053539948</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0.00557082097396254</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="n">
-        <v>-0.0465378421900161</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0263018270478787</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-1.76937678531992</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.0768310170735676</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-0.0980884759314598</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.00501279155142755</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="n">
+        <v>-0.0178743961352658</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0.031209646975012</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>-0.57272022812616</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0.567971967561006</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>-0.0797063357464247</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0.0439575434758931</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="n">
-        <v>-0.0178743961352658</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0312096469750119</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.572720228126161</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.566834138993279</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-0.0790441801764985</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.043295387905967</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="n">
+        <v>-0.0262479871175523</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0.0172912885602253</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>-1.51798907444815</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0.131809983444867</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>-0.060505148402042</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0.00800917416693747</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="n">
-        <v>-0.0262479871175523</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.0172912885602253</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-1.51798907444815</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.129017152953579</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.0601382899418834</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.00764231570677883</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="C19" s="1" t="n">
         <v>-0.100161030595813</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.0440574604561915</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-2.27341815798503</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0230009929334122</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-0.186512066340246</v>
-      </c>
-      <c r="I19" t="n">
-        <v>-0.0138099948513802</v>
+      <c r="D19" s="1" t="n">
+        <v>0.0440574604561914</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>-2.27341815798504</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0.0248904941363048</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>-0.187446805937308</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>-0.0128752552543187</v>
       </c>
     </row>
   </sheetData>
@@ -1336,150 +1534,210 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="11.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="3.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="11.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="11.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="11.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="11.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>8.704</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>8.70400000000002</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0419587524946387</v>
-      </c>
+      <c r="C2" s="1" t="n">
+        <v>0.0419587524946385</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>-0.0438003220611917</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.014846287370842</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="n">
-        <v>-2.95025422633372</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0419587524946386</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="E6" s="1" t="n">
+        <v>-2.95025422633373</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.0419587524946385</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>-0.0850202239623258</v>
       </c>
-      <c r="H6" t="n">
-        <v>-0.00258042016005752</v>
-      </c>
+      <c r="H6" s="1" t="n">
+        <v>-0.00258042016005754</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.897037037037037</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.0248299362158215</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="1" t="n">
         <v>0.828098082168246</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="1" t="n">
         <v>0.965975991905828</v>
       </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>0.940837359098229</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="1" t="n">
         <v>0.0161530303562166</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="1" t="n">
         <v>0.8959893570316</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="1" t="n">
         <v>0.985685361164858</v>
       </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1498,135 +1756,484 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="11.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="11.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="11.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="11.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="11.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="9.15" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="9.15" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0.00153499934513392</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.0272492342817056</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0.000200402523581458</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.0119752962084358</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>0.012264728594538</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.0399716031905363</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.00153499934513391</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.000200402523581458</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.000346613709440732</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.000344074828860889</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.000239028370892154</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.000802288265572067</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.000698900558575664</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.000373466104060615</v>
-      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.546763440609272</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.546763440609272</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.00110605283366644</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.000760159780638182</v>
-      </c>
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1.74930719503373</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.437326798758432</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.000842343446522195</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.00035532241436976</v>
-      </c>
+      <c r="A13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44.8462969189898</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.396869884238848</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.000150577729516141</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.08339947965125e-06</v>
-      </c>
+      <c r="A14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0.25126996351529</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0.0628174908788225</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.00121356675957989</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.000243036848655452</v>
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>11.2828335182968</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0.0998480842327154</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>29.1544792915848</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0.0645010603796124</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>18.0671646421224</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0.0399716031905363</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>105.898114970152</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1139</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>0.351419667514606</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0.148724622122648</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0.336294298200475</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0.160423670271088</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0.0604360706458031</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0.0440365929243458</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>0.0452655448979751</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0.123448933075062</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0.018211160120423</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0.0392705391802225</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>0.57183722685088</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0.122249799540535</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0.212748238030728</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0.136533908141684</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0.0172893687055202</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>0.166052811338829</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0.0370995278147154</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0.0394318080452219</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>0.0555203976653778</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>0.0170423536241597</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>0.110640409845386</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
